--- a/experience.xlsx
+++ b/experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matihagen/Documents/GitHub/clase-15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2EF665-E555-EE43-AA1F-DD9EDB6EE5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73260A08-E41B-A041-95A9-4339D83D12FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{34F6F9D6-6A0C-1745-8A7B-C797CEC13ECE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>job_title</t>
   </si>
@@ -50,33 +50,28 @@
     <t>start_time</t>
   </si>
   <si>
-    <t>Researcher</t>
-  </si>
-  <si>
-    <t>Instituto Libertad y Desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research topics: Unemployment, productivity, economic growth and international markets.
-</t>
-  </si>
-  <si>
-    <t>Researcher Assitant</t>
-  </si>
-  <si>
-    <t>Centro de Estudios Públicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research topics: Health economics, public health, health insurance.
-</t>
-  </si>
-  <si>
-    <t>Gobierno de Chile</t>
-  </si>
-  <si>
-    <t>Economic and statistical advisor of the Minister of Social Development and Family</t>
-  </si>
-  <si>
     <t>presente</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Ministry of Social Development and Family - Gobierno de Chile</t>
+  </si>
+  <si>
+    <t>Subsecretary of Social Evaluation - Gobierno de Chile</t>
+  </si>
+  <si>
+    <t>Inmigration Department - Gobierno de Chile</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Economic and statistical advisor of the Minister of Social Development and Family.&lt;/li&gt;&lt;li&gt;Data analysis, policy evaluation and design for the Ministry’s agenda.&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Economic and statistical advisor of the Social Evaluation Subsecretary (Ministry of Social Developmentand Family).&lt;/li&gt;&lt;li&gt;Projects management for two divisions: Public-Private Cooperation, in which we worked on social responsability for businesses contracts, and Social Observatory, in which we worked on the 2020 Social Characterization Survey (CASEN) and Subjective Well-being indicators.&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Economic Policy advisor of the National Head of the Inmigration Department (Ministry of Interior).&lt;/li&gt;&lt;li&gt;Statistical reports and relationships with international organisations (OECD and IMF).&lt;/li&gt;</t>
   </si>
 </sst>
 </file>
@@ -437,14 +432,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -464,55 +460,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E3" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
